--- a/FDDL_Evan/2015.4.24测试结果记录.xlsx
+++ b/FDDL_Evan/2015.4.24测试结果记录.xlsx
@@ -130,10 +130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,23 +520,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -766,7 +766,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B19">
@@ -805,7 +805,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B20">
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21">
@@ -880,6 +880,42 @@
       <c r="L21">
         <f>SUM(B21:K21)/10</f>
         <v>0.65432926829268301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>0.4</v>
+      </c>
+      <c r="C24">
+        <v>0.46341463414634199</v>
+      </c>
+      <c r="D24">
+        <v>0.41463414634146301</v>
+      </c>
+      <c r="E24">
+        <v>0.68292682926829296</v>
+      </c>
+      <c r="F24">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J24">
+        <v>0.6</v>
+      </c>
+      <c r="K24">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L24">
+        <f>SUM(B24:K24)/10</f>
+        <v>0.50359756097560981</v>
       </c>
     </row>
   </sheetData>
